--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 1.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Weekly MAPE</t>
   </si>
   <si>
-    <t>2020-12-19</t>
+    <t>2021-01-02</t>
   </si>
   <si>
     <t>23 Feb -- 29 Feb 2020</t>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>20 Dec -- 26 Dec 2020</t>
+  </si>
+  <si>
+    <t>27 Dec -- 02 Jan 2021</t>
+  </si>
+  <si>
+    <t>03 Jan -- 09 Jan 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -542,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,16 +606,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G2">
-        <v>2.88</v>
+        <v>1.64</v>
       </c>
       <c r="H2">
-        <v>24.79</v>
+        <v>22.7</v>
       </c>
       <c r="I2">
-        <v>646.4299999999999</v>
+        <v>592.6900000000001</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -629,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -649,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -669,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -689,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -709,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -729,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -749,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -769,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -789,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -809,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -849,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -869,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -889,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -909,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -929,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -949,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -963,13 +969,13 @@
         <v>524.14</v>
       </c>
       <c r="D20">
-        <v>647.25</v>
+        <v>524.14</v>
       </c>
       <c r="E20">
-        <v>123.11</v>
+        <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -983,13 +989,13 @@
         <v>748.86</v>
       </c>
       <c r="D21">
-        <v>564.0599999999999</v>
+        <v>748.86</v>
       </c>
       <c r="E21">
-        <v>184.8</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1003,13 +1009,13 @@
         <v>786.29</v>
       </c>
       <c r="D22">
-        <v>841.48</v>
+        <v>786.29</v>
       </c>
       <c r="E22">
-        <v>55.19</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1023,13 +1029,13 @@
         <v>922</v>
       </c>
       <c r="D23">
-        <v>757.3099999999999</v>
+        <v>922</v>
       </c>
       <c r="E23">
-        <v>164.69</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1043,13 +1049,13 @@
         <v>1140.43</v>
       </c>
       <c r="D24">
-        <v>920.6</v>
+        <v>1140.43</v>
       </c>
       <c r="E24">
-        <v>219.83</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1063,13 +1069,13 @@
         <v>1038.43</v>
       </c>
       <c r="D25">
-        <v>1188.75</v>
+        <v>1038.43</v>
       </c>
       <c r="E25">
-        <v>150.32</v>
+        <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1083,13 +1089,13 @@
         <v>1007.43</v>
       </c>
       <c r="D26">
-        <v>1086.85</v>
+        <v>1007.43</v>
       </c>
       <c r="E26">
-        <v>79.42</v>
+        <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1103,13 +1109,13 @@
         <v>973.4299999999999</v>
       </c>
       <c r="D27">
-        <v>1019.11</v>
+        <v>973.4299999999999</v>
       </c>
       <c r="E27">
-        <v>45.68</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1123,13 +1129,13 @@
         <v>894.5700000000001</v>
       </c>
       <c r="D28">
-        <v>991.03</v>
+        <v>894.5700000000001</v>
       </c>
       <c r="E28">
-        <v>96.45999999999999</v>
+        <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1143,13 +1149,13 @@
         <v>846.4299999999999</v>
       </c>
       <c r="D29">
-        <v>872.65</v>
+        <v>846.4299999999999</v>
       </c>
       <c r="E29">
-        <v>26.22</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1163,13 +1169,13 @@
         <v>733.14</v>
       </c>
       <c r="D30">
-        <v>841.76</v>
+        <v>733.14</v>
       </c>
       <c r="E30">
-        <v>108.62</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1183,13 +1189,13 @@
         <v>797.86</v>
       </c>
       <c r="D31">
-        <v>731.24</v>
+        <v>797.86</v>
       </c>
       <c r="E31">
-        <v>66.61</v>
+        <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1203,16 +1209,16 @@
         <v>766.4299999999999</v>
       </c>
       <c r="D32">
-        <v>762.02</v>
+        <v>766.4299999999999</v>
       </c>
       <c r="E32">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1223,16 +1229,16 @@
         <v>702.14</v>
       </c>
       <c r="D33">
-        <v>765.87</v>
+        <v>702.14</v>
       </c>
       <c r="E33">
-        <v>63.73</v>
+        <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1243,16 +1249,16 @@
         <v>714.29</v>
       </c>
       <c r="D34">
-        <v>753.22</v>
+        <v>714.29</v>
       </c>
       <c r="E34">
-        <v>38.94</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1263,16 +1269,16 @@
         <v>717.4299999999999</v>
       </c>
       <c r="D35">
-        <v>734.71</v>
+        <v>717.4299999999999</v>
       </c>
       <c r="E35">
-        <v>17.29</v>
+        <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1283,16 +1289,16 @@
         <v>821.5700000000001</v>
       </c>
       <c r="D36">
-        <v>746.5</v>
+        <v>821.5700000000001</v>
       </c>
       <c r="E36">
-        <v>75.06999999999999</v>
+        <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1303,16 +1309,16 @@
         <v>819</v>
       </c>
       <c r="D37">
-        <v>797.67</v>
+        <v>819</v>
       </c>
       <c r="E37">
-        <v>21.33</v>
+        <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1323,16 +1329,16 @@
         <v>994.86</v>
       </c>
       <c r="D38">
-        <v>787.67</v>
+        <v>994.86</v>
       </c>
       <c r="E38">
-        <v>207.18</v>
+        <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1343,16 +1349,16 @@
         <v>1087.29</v>
       </c>
       <c r="D39">
-        <v>944.55</v>
+        <v>1087.29</v>
       </c>
       <c r="E39">
-        <v>142.74</v>
+        <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -1363,16 +1369,16 @@
         <v>1466.29</v>
       </c>
       <c r="D40">
-        <v>1160.78</v>
+        <v>1466.29</v>
       </c>
       <c r="E40">
-        <v>305.5</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1383,16 +1389,16 @@
         <v>1447.14</v>
       </c>
       <c r="D41">
-        <v>1269.65</v>
+        <v>1447.14</v>
       </c>
       <c r="E41">
-        <v>177.49</v>
+        <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -1403,16 +1409,16 @@
         <v>2150.29</v>
       </c>
       <c r="D42">
-        <v>1326.77</v>
+        <v>2150.29</v>
       </c>
       <c r="E42">
-        <v>823.51</v>
+        <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1423,16 +1429,16 @@
         <v>2383.14</v>
       </c>
       <c r="D43">
-        <v>2135.57</v>
+        <v>2383.14</v>
       </c>
       <c r="E43">
-        <v>247.58</v>
+        <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -1443,16 +1449,16 @@
         <v>2607.86</v>
       </c>
       <c r="D44">
-        <v>1961.42</v>
+        <v>2607.86</v>
       </c>
       <c r="E44">
-        <v>646.4299999999999</v>
+        <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -1463,19 +1469,47 @@
         <v>2250</v>
       </c>
       <c r="D45">
-        <v>2139.25</v>
+        <v>2250</v>
       </c>
       <c r="E45">
-        <v>110.75</v>
+        <v>0</v>
       </c>
       <c r="F45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
         <v>56</v>
       </c>
-      <c r="J45">
-        <v>110.75</v>
-      </c>
-      <c r="K45">
-        <v>4.92</v>
+      <c r="C46">
+        <v>2611</v>
+      </c>
+      <c r="D46">
+        <v>2611</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47">
+        <v>1887.64</v>
+      </c>
+      <c r="F47" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 1.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="63">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -49,9 +49,18 @@
     <t>Weekly MAPE</t>
   </si>
   <si>
+    <t>2020-12-19</t>
+  </si>
+  <si>
+    <t>2020-12-26</t>
+  </si>
+  <si>
     <t>2021-01-02</t>
   </si>
   <si>
+    <t>2021-01-09</t>
+  </si>
+  <si>
     <t>23 Feb -- 29 Feb 2020</t>
   </si>
   <si>
@@ -188,6 +197,9 @@
   </si>
   <si>
     <t>03 Jan -- 09 Jan 2021</t>
+  </si>
+  <si>
+    <t>10 Jan -- 16 Jan 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -548,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>0.14</v>
@@ -606,16 +618,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G2">
-        <v>1.64</v>
+        <v>2.88</v>
       </c>
       <c r="H2">
-        <v>22.7</v>
+        <v>24.79</v>
       </c>
       <c r="I2">
-        <v>592.6900000000001</v>
+        <v>646.4299999999999</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -623,7 +635,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>2.29</v>
@@ -635,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -643,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>5.86</v>
@@ -655,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -663,7 +675,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>58.29</v>
@@ -675,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -683,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>347.43</v>
@@ -695,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -703,7 +715,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>1154.86</v>
@@ -715,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,7 +735,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>2087.86</v>
@@ -735,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -743,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>2148.43</v>
@@ -755,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -763,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>2202.86</v>
@@ -775,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -783,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>1933.57</v>
@@ -795,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -803,7 +815,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>1753.71</v>
@@ -815,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -823,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>1426.86</v>
@@ -835,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -843,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>1220.57</v>
@@ -855,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -863,7 +875,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>946.14</v>
@@ -875,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -883,7 +895,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>873.71</v>
@@ -895,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -903,7 +915,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>744.29</v>
@@ -915,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -923,7 +935,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>602.14</v>
@@ -935,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -943,7 +955,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>565.86</v>
@@ -955,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -963,19 +975,19 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>524.14</v>
       </c>
       <c r="D20">
-        <v>524.14</v>
+        <v>647.25</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>123.11</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -983,19 +995,19 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>748.86</v>
       </c>
       <c r="D21">
-        <v>748.86</v>
+        <v>564.0599999999999</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>184.8</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1003,19 +1015,19 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>786.29</v>
       </c>
       <c r="D22">
-        <v>786.29</v>
+        <v>841.48</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>55.19</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1023,19 +1035,19 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>922</v>
       </c>
       <c r="D23">
-        <v>922</v>
+        <v>757.3099999999999</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>164.69</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1043,19 +1055,19 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>1140.43</v>
       </c>
       <c r="D24">
-        <v>1140.43</v>
+        <v>920.6</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>219.83</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1063,19 +1075,19 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>1038.43</v>
       </c>
       <c r="D25">
-        <v>1038.43</v>
+        <v>1188.75</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>150.32</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1083,19 +1095,19 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>1007.43</v>
       </c>
       <c r="D26">
-        <v>1007.43</v>
+        <v>1086.85</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>79.42</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1103,19 +1115,19 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>973.4299999999999</v>
       </c>
       <c r="D27">
-        <v>973.4299999999999</v>
+        <v>1019.11</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>45.68</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1123,19 +1135,19 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>894.5700000000001</v>
       </c>
       <c r="D28">
-        <v>894.5700000000001</v>
+        <v>991.03</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>96.45999999999999</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1143,19 +1155,19 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C29">
         <v>846.4299999999999</v>
       </c>
       <c r="D29">
-        <v>846.4299999999999</v>
+        <v>872.65</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>26.22</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1163,19 +1175,19 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>733.14</v>
       </c>
       <c r="D30">
-        <v>733.14</v>
+        <v>841.76</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>108.62</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1183,19 +1195,19 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>797.86</v>
       </c>
       <c r="D31">
-        <v>797.86</v>
+        <v>731.24</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>66.61</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1203,313 +1215,387 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>766.4299999999999</v>
       </c>
       <c r="D32">
-        <v>766.4299999999999</v>
+        <v>762.02</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C33">
         <v>702.14</v>
       </c>
       <c r="D33">
-        <v>702.14</v>
+        <v>765.87</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>63.73</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>714.29</v>
       </c>
       <c r="D34">
-        <v>714.29</v>
+        <v>753.22</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>38.94</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>717.4299999999999</v>
       </c>
       <c r="D35">
-        <v>717.4299999999999</v>
+        <v>734.71</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>17.29</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C36">
         <v>821.5700000000001</v>
       </c>
       <c r="D36">
-        <v>821.5700000000001</v>
+        <v>746.5</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>75.06999999999999</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C37">
         <v>819</v>
       </c>
       <c r="D37">
-        <v>819</v>
+        <v>797.67</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>21.33</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C38">
         <v>994.86</v>
       </c>
       <c r="D38">
-        <v>994.86</v>
+        <v>787.67</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>207.18</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>1087.29</v>
       </c>
       <c r="D39">
-        <v>1087.29</v>
+        <v>944.55</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>142.74</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <v>1466.29</v>
       </c>
       <c r="D40">
-        <v>1466.29</v>
+        <v>1160.78</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>305.5</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C41">
         <v>1447.14</v>
       </c>
       <c r="D41">
-        <v>1447.14</v>
+        <v>1269.65</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>177.49</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C42">
         <v>2150.29</v>
       </c>
       <c r="D42">
-        <v>2150.29</v>
+        <v>1326.77</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>823.51</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C43">
         <v>2383.14</v>
       </c>
       <c r="D43">
-        <v>2383.14</v>
+        <v>2135.57</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>247.58</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C44">
         <v>2607.86</v>
       </c>
       <c r="D44">
-        <v>2607.86</v>
+        <v>1961.42</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>646.4299999999999</v>
       </c>
       <c r="F44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" t="s">
-        <v>55</v>
       </c>
       <c r="C45">
         <v>2250</v>
       </c>
       <c r="D45">
-        <v>2250</v>
+        <v>2139.25</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>110.75</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="J45">
+        <v>110.75</v>
+      </c>
+      <c r="K45">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C46">
-        <v>2611</v>
+        <v>2604.14</v>
       </c>
       <c r="D46">
-        <v>2611</v>
+        <v>2167.77</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>436.38</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G46">
+        <v>0.36</v>
+      </c>
+      <c r="H46">
+        <v>5.86</v>
+      </c>
+      <c r="I46">
+        <v>131.38</v>
+      </c>
+      <c r="J46">
+        <v>273.56</v>
+      </c>
+      <c r="K46">
+        <v>10.84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="C47">
+        <v>3174.14</v>
       </c>
       <c r="D47">
-        <v>1887.64</v>
+        <v>1770.52</v>
+      </c>
+      <c r="E47">
+        <v>1403.62</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="G47">
+        <v>1.64</v>
+      </c>
+      <c r="H47">
+        <v>22.7</v>
+      </c>
+      <c r="I47">
+        <v>592.6900000000001</v>
+      </c>
+      <c r="J47">
+        <v>650.25</v>
+      </c>
+      <c r="K47">
+        <v>21.97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48">
+        <v>3333.57</v>
+      </c>
+      <c r="D48">
+        <v>2251.19</v>
+      </c>
+      <c r="E48">
+        <v>1082.38</v>
+      </c>
+      <c r="F48" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48">
+        <v>29.45</v>
+      </c>
+      <c r="I48">
+        <v>934.71</v>
+      </c>
+      <c r="J48">
+        <v>758.28</v>
+      </c>
+      <c r="K48">
+        <v>24.59</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 1.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="63">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -560,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1598,6 +1598,32 @@
         <v>24.59</v>
       </c>
     </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49">
+        <v>3333.57</v>
+      </c>
+      <c r="D49">
+        <v>2251.19</v>
+      </c>
+      <c r="E49">
+        <v>1082.38</v>
+      </c>
+      <c r="F49" t="s">
+        <v>62</v>
+      </c>
+      <c r="J49">
+        <v>823.1</v>
+      </c>
+      <c r="K49">
+        <v>26.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 1.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="65">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2021-01-09</t>
   </si>
   <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
     <t>23 Feb -- 29 Feb 2020</t>
   </si>
   <si>
@@ -200,6 +203,9 @@
   </si>
   <si>
     <t>10 Jan -- 16 Jan 2021</t>
+  </si>
+  <si>
+    <t>17 Jan -- 23 Jan 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -560,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>0.14</v>
@@ -618,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <v>2.88</v>
@@ -635,7 +641,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>2.29</v>
@@ -647,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -655,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>5.86</v>
@@ -667,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -675,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>58.29</v>
@@ -687,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -695,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>347.43</v>
@@ -707,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -715,7 +721,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>1154.86</v>
@@ -727,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -735,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>2087.86</v>
@@ -747,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -755,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>2148.43</v>
@@ -767,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -775,7 +781,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>2202.86</v>
@@ -787,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,7 +801,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>1933.57</v>
@@ -807,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -815,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>1753.71</v>
@@ -827,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -835,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>1426.86</v>
@@ -847,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -855,7 +861,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>1220.57</v>
@@ -867,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -875,7 +881,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>946.14</v>
@@ -887,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -895,7 +901,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>873.71</v>
@@ -907,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -915,7 +921,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>744.29</v>
@@ -927,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -935,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>602.14</v>
@@ -947,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -955,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>565.86</v>
@@ -967,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -975,7 +981,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>524.14</v>
@@ -987,7 +993,7 @@
         <v>123.11</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -995,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>748.86</v>
@@ -1007,7 +1013,7 @@
         <v>184.8</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1015,7 +1021,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>786.29</v>
@@ -1027,7 +1033,7 @@
         <v>55.19</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1035,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>922</v>
@@ -1047,7 +1053,7 @@
         <v>164.69</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1055,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>1140.43</v>
@@ -1067,7 +1073,7 @@
         <v>219.83</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1075,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>1038.43</v>
@@ -1087,7 +1093,7 @@
         <v>150.32</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1095,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>1007.43</v>
@@ -1107,7 +1113,7 @@
         <v>79.42</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1115,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>973.4299999999999</v>
@@ -1127,7 +1133,7 @@
         <v>45.68</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1135,7 +1141,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>894.5700000000001</v>
@@ -1147,7 +1153,7 @@
         <v>96.45999999999999</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1155,7 +1161,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>846.4299999999999</v>
@@ -1167,7 +1173,7 @@
         <v>26.22</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1175,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>733.14</v>
@@ -1187,7 +1193,7 @@
         <v>108.62</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1195,7 +1201,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>797.86</v>
@@ -1207,7 +1213,7 @@
         <v>66.61</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1215,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>766.4299999999999</v>
@@ -1227,7 +1233,7 @@
         <v>4.4</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1235,7 +1241,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>702.14</v>
@@ -1247,7 +1253,7 @@
         <v>63.73</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1255,7 +1261,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>714.29</v>
@@ -1267,7 +1273,7 @@
         <v>38.94</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1275,7 +1281,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>717.4299999999999</v>
@@ -1287,7 +1293,7 @@
         <v>17.29</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1295,7 +1301,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>821.5700000000001</v>
@@ -1307,7 +1313,7 @@
         <v>75.06999999999999</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1315,7 +1321,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>819</v>
@@ -1327,7 +1333,7 @@
         <v>21.33</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1335,7 +1341,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>994.86</v>
@@ -1347,7 +1353,7 @@
         <v>207.18</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1355,7 +1361,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <v>1087.29</v>
@@ -1367,7 +1373,7 @@
         <v>142.74</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1375,7 +1381,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40">
         <v>1466.29</v>
@@ -1387,7 +1393,7 @@
         <v>305.5</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1395,7 +1401,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41">
         <v>1447.14</v>
@@ -1407,7 +1413,7 @@
         <v>177.49</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1415,7 +1421,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42">
         <v>2150.29</v>
@@ -1427,7 +1433,7 @@
         <v>823.51</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1435,7 +1441,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43">
         <v>2383.14</v>
@@ -1447,7 +1453,7 @@
         <v>247.58</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1455,7 +1461,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44">
         <v>2607.86</v>
@@ -1467,7 +1473,7 @@
         <v>646.4299999999999</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1475,7 +1481,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45">
         <v>2250</v>
@@ -1487,7 +1493,7 @@
         <v>110.75</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J45">
         <v>110.75</v>
@@ -1501,7 +1507,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46">
         <v>2604.14</v>
@@ -1513,7 +1519,7 @@
         <v>436.38</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G46">
         <v>0.36</v>
@@ -1536,7 +1542,7 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47">
         <v>3174.14</v>
@@ -1548,7 +1554,7 @@
         <v>1403.62</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G47">
         <v>1.64</v>
@@ -1571,7 +1577,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C48">
         <v>3333.57</v>
@@ -1583,7 +1589,7 @@
         <v>1082.38</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H48">
         <v>29.45</v>
@@ -1603,7 +1609,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49">
         <v>3333.57</v>
@@ -1615,13 +1621,36 @@
         <v>1082.38</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J49">
         <v>823.1</v>
       </c>
       <c r="K49">
         <v>26.17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50">
+        <v>2835.28</v>
+      </c>
+      <c r="F50" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50">
+        <v>6.12</v>
+      </c>
+      <c r="H50">
+        <v>29.51</v>
+      </c>
+      <c r="I50">
+        <v>983.84</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 1.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="67">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -64,6 +64,9 @@
     <t>2021-01-16</t>
   </si>
   <si>
+    <t>2021-01-23</t>
+  </si>
+  <si>
     <t>23 Feb -- 29 Feb 2020</t>
   </si>
   <si>
@@ -206,6 +209,9 @@
   </si>
   <si>
     <t>17 Jan -- 23 Jan 2021</t>
+  </si>
+  <si>
+    <t>24 Jan -- 30 Jan 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -566,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>0.14</v>
@@ -624,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2">
         <v>2.88</v>
@@ -641,7 +647,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>2.29</v>
@@ -653,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -661,7 +667,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>5.86</v>
@@ -673,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,7 +687,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>58.29</v>
@@ -693,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -701,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>347.43</v>
@@ -713,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -721,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>1154.86</v>
@@ -733,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -741,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>2087.86</v>
@@ -753,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -761,7 +767,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>2148.43</v>
@@ -773,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>2202.86</v>
@@ -793,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -801,7 +807,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>1933.57</v>
@@ -813,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,7 +827,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>1753.71</v>
@@ -833,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -841,7 +847,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>1426.86</v>
@@ -853,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -861,7 +867,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>1220.57</v>
@@ -873,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -881,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>946.14</v>
@@ -893,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -901,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>873.71</v>
@@ -913,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -921,7 +927,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>744.29</v>
@@ -933,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -941,7 +947,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>602.14</v>
@@ -953,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -961,7 +967,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>565.86</v>
@@ -973,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -981,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>524.14</v>
@@ -993,7 +999,7 @@
         <v>123.11</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1001,7 +1007,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>748.86</v>
@@ -1013,7 +1019,7 @@
         <v>184.8</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1021,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>786.29</v>
@@ -1033,7 +1039,7 @@
         <v>55.19</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1041,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>922</v>
@@ -1053,7 +1059,7 @@
         <v>164.69</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1061,7 +1067,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>1140.43</v>
@@ -1073,7 +1079,7 @@
         <v>219.83</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1081,7 +1087,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>1038.43</v>
@@ -1093,7 +1099,7 @@
         <v>150.32</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1101,7 +1107,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>1007.43</v>
@@ -1113,7 +1119,7 @@
         <v>79.42</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1121,7 +1127,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>973.4299999999999</v>
@@ -1133,7 +1139,7 @@
         <v>45.68</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1141,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>894.5700000000001</v>
@@ -1153,7 +1159,7 @@
         <v>96.45999999999999</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1161,7 +1167,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>846.4299999999999</v>
@@ -1173,7 +1179,7 @@
         <v>26.22</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1181,7 +1187,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>733.14</v>
@@ -1193,7 +1199,7 @@
         <v>108.62</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1201,7 +1207,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>797.86</v>
@@ -1213,7 +1219,7 @@
         <v>66.61</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1221,7 +1227,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>766.4299999999999</v>
@@ -1233,7 +1239,7 @@
         <v>4.4</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1241,7 +1247,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>702.14</v>
@@ -1253,7 +1259,7 @@
         <v>63.73</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1261,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>714.29</v>
@@ -1273,7 +1279,7 @@
         <v>38.94</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1281,7 +1287,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>717.4299999999999</v>
@@ -1293,7 +1299,7 @@
         <v>17.29</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1301,7 +1307,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>821.5700000000001</v>
@@ -1313,7 +1319,7 @@
         <v>75.06999999999999</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1321,7 +1327,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <v>819</v>
@@ -1333,7 +1339,7 @@
         <v>21.33</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1341,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <v>994.86</v>
@@ -1353,7 +1359,7 @@
         <v>207.18</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1361,7 +1367,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>1087.29</v>
@@ -1373,7 +1379,7 @@
         <v>142.74</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1381,7 +1387,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40">
         <v>1466.29</v>
@@ -1393,7 +1399,7 @@
         <v>305.5</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1401,7 +1407,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>1447.14</v>
@@ -1413,7 +1419,7 @@
         <v>177.49</v>
       </c>
       <c r="F41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1421,7 +1427,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>2150.29</v>
@@ -1433,7 +1439,7 @@
         <v>823.51</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1441,7 +1447,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43">
         <v>2383.14</v>
@@ -1453,7 +1459,7 @@
         <v>247.58</v>
       </c>
       <c r="F43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1461,7 +1467,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <v>2607.86</v>
@@ -1473,7 +1479,7 @@
         <v>646.4299999999999</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1481,7 +1487,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45">
         <v>2250</v>
@@ -1493,7 +1499,7 @@
         <v>110.75</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J45">
         <v>110.75</v>
@@ -1507,7 +1513,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C46">
         <v>2604.14</v>
@@ -1519,7 +1525,7 @@
         <v>436.38</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G46">
         <v>0.36</v>
@@ -1542,7 +1548,7 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47">
         <v>3174.14</v>
@@ -1554,7 +1560,7 @@
         <v>1403.62</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G47">
         <v>1.64</v>
@@ -1577,7 +1583,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48">
         <v>3333.57</v>
@@ -1589,7 +1595,7 @@
         <v>1082.38</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H48">
         <v>29.45</v>
@@ -1609,7 +1615,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C49">
         <v>3333.57</v>
@@ -1621,7 +1627,7 @@
         <v>1082.38</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J49">
         <v>823.1</v>
@@ -1635,13 +1641,19 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C50">
+        <v>3084</v>
       </c>
       <c r="D50">
         <v>2835.28</v>
       </c>
+      <c r="E50">
+        <v>248.72</v>
+      </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G50">
         <v>6.12</v>
@@ -1651,6 +1663,73 @@
       </c>
       <c r="I50">
         <v>983.84</v>
+      </c>
+      <c r="J50">
+        <v>727.37</v>
+      </c>
+      <c r="K50">
+        <v>23.15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51">
+        <v>3084</v>
+      </c>
+      <c r="D51">
+        <v>2835.28</v>
+      </c>
+      <c r="E51">
+        <v>248.72</v>
+      </c>
+      <c r="F51" t="s">
+        <v>66</v>
+      </c>
+      <c r="J51">
+        <v>658.99</v>
+      </c>
+      <c r="K51">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52">
+        <v>3141</v>
+      </c>
+      <c r="D52">
+        <v>2640.13</v>
+      </c>
+      <c r="E52">
+        <v>500.87</v>
+      </c>
+      <c r="F52" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52">
+        <v>3.49</v>
+      </c>
+      <c r="H52">
+        <v>28.23</v>
+      </c>
+      <c r="I52">
+        <v>871.05</v>
+      </c>
+      <c r="J52">
+        <v>639.23</v>
+      </c>
+      <c r="K52">
+        <v>20.36</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 1.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="69">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -67,6 +67,9 @@
     <t>2021-01-23</t>
   </si>
   <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
     <t>23 Feb -- 29 Feb 2020</t>
   </si>
   <si>
@@ -212,6 +215,9 @@
   </si>
   <si>
     <t>24 Jan -- 30 Jan 2021</t>
+  </si>
+  <si>
+    <t>31 Jan -- 06 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -572,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>0.14</v>
@@ -630,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2">
         <v>2.88</v>
@@ -647,7 +653,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>2.29</v>
@@ -659,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -667,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>5.86</v>
@@ -679,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -687,7 +693,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>58.29</v>
@@ -699,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -707,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>347.43</v>
@@ -719,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -727,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>1154.86</v>
@@ -739,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -747,7 +753,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>2087.86</v>
@@ -759,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -767,7 +773,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>2148.43</v>
@@ -779,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -787,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>2202.86</v>
@@ -799,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -807,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>1933.57</v>
@@ -819,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -827,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>1753.71</v>
@@ -839,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,7 +853,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>1426.86</v>
@@ -859,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -867,7 +873,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>1220.57</v>
@@ -879,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -887,7 +893,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>946.14</v>
@@ -899,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -907,7 +913,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>873.71</v>
@@ -919,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -927,7 +933,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>744.29</v>
@@ -939,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -947,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>602.14</v>
@@ -959,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -967,7 +973,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>565.86</v>
@@ -979,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -987,7 +993,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>524.14</v>
@@ -999,7 +1005,7 @@
         <v>123.11</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1007,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>748.86</v>
@@ -1019,7 +1025,7 @@
         <v>184.8</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1027,7 +1033,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22">
         <v>786.29</v>
@@ -1039,7 +1045,7 @@
         <v>55.19</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1047,7 +1053,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23">
         <v>922</v>
@@ -1059,7 +1065,7 @@
         <v>164.69</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1067,7 +1073,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <v>1140.43</v>
@@ -1079,7 +1085,7 @@
         <v>219.83</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1087,7 +1093,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <v>1038.43</v>
@@ -1099,7 +1105,7 @@
         <v>150.32</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1107,7 +1113,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <v>1007.43</v>
@@ -1119,7 +1125,7 @@
         <v>79.42</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1127,7 +1133,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>973.4299999999999</v>
@@ -1139,7 +1145,7 @@
         <v>45.68</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1147,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28">
         <v>894.5700000000001</v>
@@ -1159,7 +1165,7 @@
         <v>96.45999999999999</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1167,7 +1173,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29">
         <v>846.4299999999999</v>
@@ -1179,7 +1185,7 @@
         <v>26.22</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1187,7 +1193,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30">
         <v>733.14</v>
@@ -1199,7 +1205,7 @@
         <v>108.62</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1207,7 +1213,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <v>797.86</v>
@@ -1219,7 +1225,7 @@
         <v>66.61</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1227,7 +1233,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <v>766.4299999999999</v>
@@ -1239,7 +1245,7 @@
         <v>4.4</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1247,7 +1253,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>702.14</v>
@@ -1259,7 +1265,7 @@
         <v>63.73</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1267,7 +1273,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34">
         <v>714.29</v>
@@ -1279,7 +1285,7 @@
         <v>38.94</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1287,7 +1293,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35">
         <v>717.4299999999999</v>
@@ -1299,7 +1305,7 @@
         <v>17.29</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1307,7 +1313,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36">
         <v>821.5700000000001</v>
@@ -1319,7 +1325,7 @@
         <v>75.06999999999999</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1327,7 +1333,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37">
         <v>819</v>
@@ -1339,7 +1345,7 @@
         <v>21.33</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1347,7 +1353,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38">
         <v>994.86</v>
@@ -1359,7 +1365,7 @@
         <v>207.18</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1367,7 +1373,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39">
         <v>1087.29</v>
@@ -1379,7 +1385,7 @@
         <v>142.74</v>
       </c>
       <c r="F39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1387,7 +1393,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40">
         <v>1466.29</v>
@@ -1399,7 +1405,7 @@
         <v>305.5</v>
       </c>
       <c r="F40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1407,7 +1413,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C41">
         <v>1447.14</v>
@@ -1419,7 +1425,7 @@
         <v>177.49</v>
       </c>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1427,7 +1433,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C42">
         <v>2150.29</v>
@@ -1439,7 +1445,7 @@
         <v>823.51</v>
       </c>
       <c r="F42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1447,7 +1453,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C43">
         <v>2383.14</v>
@@ -1459,7 +1465,7 @@
         <v>247.58</v>
       </c>
       <c r="F43" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1467,7 +1473,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44">
         <v>2607.86</v>
@@ -1479,7 +1485,7 @@
         <v>646.4299999999999</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1487,7 +1493,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C45">
         <v>2250</v>
@@ -1499,7 +1505,7 @@
         <v>110.75</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J45">
         <v>110.75</v>
@@ -1513,7 +1519,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46">
         <v>2604.14</v>
@@ -1525,7 +1531,7 @@
         <v>436.38</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G46">
         <v>0.36</v>
@@ -1548,7 +1554,7 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47">
         <v>3174.14</v>
@@ -1560,7 +1566,7 @@
         <v>1403.62</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G47">
         <v>1.64</v>
@@ -1583,7 +1589,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C48">
         <v>3333.57</v>
@@ -1595,7 +1601,7 @@
         <v>1082.38</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H48">
         <v>29.45</v>
@@ -1615,7 +1621,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C49">
         <v>3333.57</v>
@@ -1627,7 +1633,7 @@
         <v>1082.38</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J49">
         <v>823.1</v>
@@ -1641,7 +1647,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C50">
         <v>3084</v>
@@ -1653,7 +1659,7 @@
         <v>248.72</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G50">
         <v>6.12</v>
@@ -1676,7 +1682,7 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C51">
         <v>3084</v>
@@ -1688,7 +1694,7 @@
         <v>248.72</v>
       </c>
       <c r="F51" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J51">
         <v>658.99</v>
@@ -1702,19 +1708,19 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C52">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D52">
         <v>2640.13</v>
       </c>
       <c r="E52">
-        <v>500.87</v>
+        <v>510.44</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G52">
         <v>3.49</v>
@@ -1726,10 +1732,68 @@
         <v>871.05</v>
       </c>
       <c r="J52">
-        <v>639.23</v>
+        <v>640.4299999999999</v>
       </c>
       <c r="K52">
-        <v>20.36</v>
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53">
+        <v>3150.57</v>
+      </c>
+      <c r="D53">
+        <v>2558.22</v>
+      </c>
+      <c r="E53">
+        <v>592.35</v>
+      </c>
+      <c r="F53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G53">
+        <v>1.2</v>
+      </c>
+      <c r="H53">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="I53">
+        <v>299.33</v>
+      </c>
+      <c r="J53">
+        <v>635.08</v>
+      </c>
+      <c r="K53">
+        <v>20.22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54">
+        <v>1878.99</v>
+      </c>
+      <c r="F54" t="s">
+        <v>68</v>
+      </c>
+      <c r="G54">
+        <v>19.17</v>
+      </c>
+      <c r="H54">
+        <v>39.56</v>
+      </c>
+      <c r="I54">
+        <v>1246.22</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 1.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="71">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -70,6 +70,9 @@
     <t>2021-01-30</t>
   </si>
   <si>
+    <t>2021-02-06</t>
+  </si>
+  <si>
     <t>23 Feb -- 29 Feb 2020</t>
   </si>
   <si>
@@ -218,6 +221,9 @@
   </si>
   <si>
     <t>31 Jan -- 06 Feb 2021</t>
+  </si>
+  <si>
+    <t>07 Feb -- 13 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -578,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,7 +630,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>0.14</v>
@@ -636,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G2">
         <v>2.88</v>
@@ -653,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>2.29</v>
@@ -665,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -673,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>5.86</v>
@@ -685,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -693,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>58.29</v>
@@ -705,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -713,7 +719,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>347.43</v>
@@ -725,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -733,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>1154.86</v>
@@ -745,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -753,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>2087.86</v>
@@ -765,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -773,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>2148.43</v>
@@ -785,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>2202.86</v>
@@ -805,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -813,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>1933.57</v>
@@ -825,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -833,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>1753.71</v>
@@ -845,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -853,7 +859,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>1426.86</v>
@@ -865,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -873,7 +879,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>1220.57</v>
@@ -885,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -893,7 +899,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>946.14</v>
@@ -905,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -913,7 +919,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>873.71</v>
@@ -925,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -933,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>744.29</v>
@@ -945,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -953,7 +959,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>602.14</v>
@@ -965,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -973,7 +979,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>565.86</v>
@@ -985,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -993,7 +999,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>524.14</v>
@@ -1005,7 +1011,7 @@
         <v>123.11</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1013,7 +1019,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>748.86</v>
@@ -1025,7 +1031,7 @@
         <v>184.8</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1033,7 +1039,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>786.29</v>
@@ -1045,7 +1051,7 @@
         <v>55.19</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1053,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>922</v>
@@ -1065,7 +1071,7 @@
         <v>164.69</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1073,7 +1079,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>1140.43</v>
@@ -1085,7 +1091,7 @@
         <v>219.83</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1093,7 +1099,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>1038.43</v>
@@ -1105,7 +1111,7 @@
         <v>150.32</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1113,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>1007.43</v>
@@ -1125,7 +1131,7 @@
         <v>79.42</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1133,7 +1139,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <v>973.4299999999999</v>
@@ -1145,7 +1151,7 @@
         <v>45.68</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1153,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>894.5700000000001</v>
@@ -1165,7 +1171,7 @@
         <v>96.45999999999999</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1173,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29">
         <v>846.4299999999999</v>
@@ -1185,7 +1191,7 @@
         <v>26.22</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1193,7 +1199,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30">
         <v>733.14</v>
@@ -1205,7 +1211,7 @@
         <v>108.62</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1213,7 +1219,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31">
         <v>797.86</v>
@@ -1225,7 +1231,7 @@
         <v>66.61</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1233,7 +1239,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <v>766.4299999999999</v>
@@ -1245,7 +1251,7 @@
         <v>4.4</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1253,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <v>702.14</v>
@@ -1265,7 +1271,7 @@
         <v>63.73</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1273,7 +1279,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34">
         <v>714.29</v>
@@ -1285,7 +1291,7 @@
         <v>38.94</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1293,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35">
         <v>717.4299999999999</v>
@@ -1305,7 +1311,7 @@
         <v>17.29</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1313,7 +1319,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36">
         <v>821.5700000000001</v>
@@ -1325,7 +1331,7 @@
         <v>75.06999999999999</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1333,7 +1339,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37">
         <v>819</v>
@@ -1345,7 +1351,7 @@
         <v>21.33</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1353,7 +1359,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38">
         <v>994.86</v>
@@ -1365,7 +1371,7 @@
         <v>207.18</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1373,7 +1379,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39">
         <v>1087.29</v>
@@ -1385,7 +1391,7 @@
         <v>142.74</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1393,7 +1399,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C40">
         <v>1466.29</v>
@@ -1405,7 +1411,7 @@
         <v>305.5</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1413,7 +1419,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C41">
         <v>1447.14</v>
@@ -1425,7 +1431,7 @@
         <v>177.49</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1433,7 +1439,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C42">
         <v>2150.29</v>
@@ -1445,7 +1451,7 @@
         <v>823.51</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1453,7 +1459,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C43">
         <v>2383.14</v>
@@ -1465,7 +1471,7 @@
         <v>247.58</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1473,7 +1479,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C44">
         <v>2607.86</v>
@@ -1485,7 +1491,7 @@
         <v>646.4299999999999</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1493,7 +1499,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C45">
         <v>2250</v>
@@ -1505,7 +1511,7 @@
         <v>110.75</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J45">
         <v>110.75</v>
@@ -1519,7 +1525,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C46">
         <v>2604.14</v>
@@ -1531,7 +1537,7 @@
         <v>436.38</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G46">
         <v>0.36</v>
@@ -1554,7 +1560,7 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C47">
         <v>3174.14</v>
@@ -1566,7 +1572,7 @@
         <v>1403.62</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G47">
         <v>1.64</v>
@@ -1589,7 +1595,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C48">
         <v>3333.57</v>
@@ -1601,7 +1607,7 @@
         <v>1082.38</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H48">
         <v>29.45</v>
@@ -1621,7 +1627,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49">
         <v>3333.57</v>
@@ -1633,7 +1639,7 @@
         <v>1082.38</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J49">
         <v>823.1</v>
@@ -1647,7 +1653,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C50">
         <v>3084</v>
@@ -1659,7 +1665,7 @@
         <v>248.72</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G50">
         <v>6.12</v>
@@ -1682,7 +1688,7 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C51">
         <v>3084</v>
@@ -1694,7 +1700,7 @@
         <v>248.72</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J51">
         <v>658.99</v>
@@ -1708,7 +1714,7 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C52">
         <v>3150.57</v>
@@ -1720,7 +1726,7 @@
         <v>510.44</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>3.49</v>
@@ -1743,7 +1749,7 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C53">
         <v>3150.57</v>
@@ -1755,7 +1761,7 @@
         <v>592.35</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G53">
         <v>1.2</v>
@@ -1778,13 +1784,19 @@
         <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="C54">
+        <v>3234.14</v>
       </c>
       <c r="D54">
         <v>1878.99</v>
       </c>
+      <c r="E54">
+        <v>1355.16</v>
+      </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G54">
         <v>19.17</v>
@@ -1794,6 +1806,82 @@
       </c>
       <c r="I54">
         <v>1246.22</v>
+      </c>
+      <c r="J54">
+        <v>707.09</v>
+      </c>
+      <c r="K54">
+        <v>22.39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55">
+        <v>3234.14</v>
+      </c>
+      <c r="D55">
+        <v>2692.39</v>
+      </c>
+      <c r="E55">
+        <v>541.76</v>
+      </c>
+      <c r="F55" t="s">
+        <v>70</v>
+      </c>
+      <c r="G55">
+        <v>3.3</v>
+      </c>
+      <c r="H55">
+        <v>6.8</v>
+      </c>
+      <c r="I55">
+        <v>214.18</v>
+      </c>
+      <c r="J55">
+        <v>692.0599999999999</v>
+      </c>
+      <c r="K55">
+        <v>21.87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56">
+        <v>2487.29</v>
+      </c>
+      <c r="D56">
+        <v>2813.08</v>
+      </c>
+      <c r="E56">
+        <v>325.79</v>
+      </c>
+      <c r="F56" t="s">
+        <v>70</v>
+      </c>
+      <c r="G56">
+        <v>2.32</v>
+      </c>
+      <c r="H56">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I56">
+        <v>279.24</v>
+      </c>
+      <c r="J56">
+        <v>661.54</v>
+      </c>
+      <c r="K56">
+        <v>21.14</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 1.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="73">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -73,6 +73,9 @@
     <t>2021-02-06</t>
   </si>
   <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
     <t>23 Feb -- 29 Feb 2020</t>
   </si>
   <si>
@@ -224,6 +227,9 @@
   </si>
   <si>
     <t>07 Feb -- 13 Feb 2021</t>
+  </si>
+  <si>
+    <t>21 Feb -- 27 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -584,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,7 +636,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>0.14</v>
@@ -642,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G2">
         <v>2.88</v>
@@ -659,7 +665,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>2.29</v>
@@ -671,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -679,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>5.86</v>
@@ -691,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -699,7 +705,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>58.29</v>
@@ -711,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -719,7 +725,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>347.43</v>
@@ -731,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -739,7 +745,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>1154.86</v>
@@ -751,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -759,7 +765,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>2087.86</v>
@@ -771,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -779,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>2148.43</v>
@@ -791,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -799,7 +805,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>2202.86</v>
@@ -811,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -819,7 +825,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>1933.57</v>
@@ -831,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -839,7 +845,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>1753.71</v>
@@ -851,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -859,7 +865,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>1426.86</v>
@@ -871,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -879,7 +885,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>1220.57</v>
@@ -891,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -899,7 +905,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>946.14</v>
@@ -911,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -919,7 +925,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>873.71</v>
@@ -931,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -939,7 +945,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>744.29</v>
@@ -951,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -959,7 +965,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>602.14</v>
@@ -971,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -979,7 +985,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>565.86</v>
@@ -991,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -999,7 +1005,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>524.14</v>
@@ -1011,7 +1017,7 @@
         <v>123.11</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1019,7 +1025,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>748.86</v>
@@ -1031,7 +1037,7 @@
         <v>184.8</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1039,7 +1045,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>786.29</v>
@@ -1051,7 +1057,7 @@
         <v>55.19</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1059,7 +1065,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>922</v>
@@ -1071,7 +1077,7 @@
         <v>164.69</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1079,7 +1085,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>1140.43</v>
@@ -1091,7 +1097,7 @@
         <v>219.83</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1099,7 +1105,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>1038.43</v>
@@ -1111,7 +1117,7 @@
         <v>150.32</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1119,7 +1125,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <v>1007.43</v>
@@ -1131,7 +1137,7 @@
         <v>79.42</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1139,7 +1145,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>973.4299999999999</v>
@@ -1151,7 +1157,7 @@
         <v>45.68</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1159,7 +1165,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28">
         <v>894.5700000000001</v>
@@ -1171,7 +1177,7 @@
         <v>96.45999999999999</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1179,7 +1185,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>846.4299999999999</v>
@@ -1191,7 +1197,7 @@
         <v>26.22</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1199,7 +1205,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>733.14</v>
@@ -1211,7 +1217,7 @@
         <v>108.62</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1219,7 +1225,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>797.86</v>
@@ -1231,7 +1237,7 @@
         <v>66.61</v>
       </c>
       <c r="F31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1239,7 +1245,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>766.4299999999999</v>
@@ -1251,7 +1257,7 @@
         <v>4.4</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1259,7 +1265,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33">
         <v>702.14</v>
@@ -1271,7 +1277,7 @@
         <v>63.73</v>
       </c>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1279,7 +1285,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34">
         <v>714.29</v>
@@ -1291,7 +1297,7 @@
         <v>38.94</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1299,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35">
         <v>717.4299999999999</v>
@@ -1311,7 +1317,7 @@
         <v>17.29</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1319,7 +1325,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36">
         <v>821.5700000000001</v>
@@ -1331,7 +1337,7 @@
         <v>75.06999999999999</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1339,7 +1345,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <v>819</v>
@@ -1351,7 +1357,7 @@
         <v>21.33</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1359,7 +1365,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38">
         <v>994.86</v>
@@ -1371,7 +1377,7 @@
         <v>207.18</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1379,7 +1385,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39">
         <v>1087.29</v>
@@ -1391,7 +1397,7 @@
         <v>142.74</v>
       </c>
       <c r="F39" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1399,7 +1405,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40">
         <v>1466.29</v>
@@ -1411,7 +1417,7 @@
         <v>305.5</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1419,7 +1425,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>1447.14</v>
@@ -1431,7 +1437,7 @@
         <v>177.49</v>
       </c>
       <c r="F41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1439,7 +1445,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42">
         <v>2150.29</v>
@@ -1451,7 +1457,7 @@
         <v>823.51</v>
       </c>
       <c r="F42" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1459,7 +1465,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43">
         <v>2383.14</v>
@@ -1471,7 +1477,7 @@
         <v>247.58</v>
       </c>
       <c r="F43" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1479,7 +1485,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44">
         <v>2607.86</v>
@@ -1491,7 +1497,7 @@
         <v>646.4299999999999</v>
       </c>
       <c r="F44" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1499,7 +1505,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45">
         <v>2250</v>
@@ -1511,7 +1517,7 @@
         <v>110.75</v>
       </c>
       <c r="F45" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J45">
         <v>110.75</v>
@@ -1525,7 +1531,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C46">
         <v>2604.14</v>
@@ -1537,7 +1543,7 @@
         <v>436.38</v>
       </c>
       <c r="F46" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G46">
         <v>0.36</v>
@@ -1560,7 +1566,7 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C47">
         <v>3174.14</v>
@@ -1572,7 +1578,7 @@
         <v>1403.62</v>
       </c>
       <c r="F47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G47">
         <v>1.64</v>
@@ -1595,7 +1601,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C48">
         <v>3333.57</v>
@@ -1607,7 +1613,7 @@
         <v>1082.38</v>
       </c>
       <c r="F48" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H48">
         <v>29.45</v>
@@ -1627,7 +1633,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C49">
         <v>3333.57</v>
@@ -1639,7 +1645,7 @@
         <v>1082.38</v>
       </c>
       <c r="F49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J49">
         <v>823.1</v>
@@ -1653,7 +1659,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C50">
         <v>3084</v>
@@ -1665,7 +1671,7 @@
         <v>248.72</v>
       </c>
       <c r="F50" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G50">
         <v>6.12</v>
@@ -1688,7 +1694,7 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C51">
         <v>3084</v>
@@ -1700,7 +1706,7 @@
         <v>248.72</v>
       </c>
       <c r="F51" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J51">
         <v>658.99</v>
@@ -1714,7 +1720,7 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C52">
         <v>3150.57</v>
@@ -1726,7 +1732,7 @@
         <v>510.44</v>
       </c>
       <c r="F52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G52">
         <v>3.49</v>
@@ -1749,7 +1755,7 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C53">
         <v>3150.57</v>
@@ -1761,7 +1767,7 @@
         <v>592.35</v>
       </c>
       <c r="F53" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G53">
         <v>1.2</v>
@@ -1784,7 +1790,7 @@
         <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C54">
         <v>3234.14</v>
@@ -1796,7 +1802,7 @@
         <v>1355.16</v>
       </c>
       <c r="F54" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G54">
         <v>19.17</v>
@@ -1819,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C55">
         <v>3234.14</v>
@@ -1831,7 +1837,7 @@
         <v>541.76</v>
       </c>
       <c r="F55" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G55">
         <v>3.3</v>
@@ -1854,7 +1860,7 @@
         <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C56">
         <v>2487.29</v>
@@ -1866,7 +1872,7 @@
         <v>325.79</v>
       </c>
       <c r="F56" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G56">
         <v>2.32</v>
@@ -1882,6 +1888,29 @@
       </c>
       <c r="K56">
         <v>21.14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57">
+        <v>2697.26</v>
+      </c>
+      <c r="F57" t="s">
+        <v>72</v>
+      </c>
+      <c r="G57">
+        <v>0.03</v>
+      </c>
+      <c r="H57">
+        <v>1.02</v>
+      </c>
+      <c r="I57">
+        <v>18.96</v>
       </c>
     </row>
   </sheetData>
